--- a/biology/Médecine/American_Cancer_Society/American_Cancer_Society.xlsx
+++ b/biology/Médecine/American_Cancer_Society/American_Cancer_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La American Cancer Society (ACS) est une organisation à but non lucratif américaine créée en 1913 pour lutter contre le cancer. Son siège est à Atlanta.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société a originellement été fondée le 22 mai 1913 par quinze médecins et hommes d'affaires à New York sous le nom de American Society for the Control of Cancer (ASCC). Le nom actuel est adopté en 1945[2],[3]. À l'époque durant laquelle la société a été fondée, il était difficile de prononcer le mot « cancer » en public ; 75 000 cas de décès étaient lié au cancer rien qu'aux États-Unis. Le symbole est adopté par la American Cancer Society en 1928, et créé par George E. Durant de Brooklyn, New York[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société a originellement été fondée le 22 mai 1913 par quinze médecins et hommes d'affaires à New York sous le nom de American Society for the Control of Cancer (ASCC). Le nom actuel est adopté en 1945,. À l'époque durant laquelle la société a été fondée, il était difficile de prononcer le mot « cancer » en public ; 75 000 cas de décès étaient lié au cancer rien qu'aux États-Unis. Le symbole est adopté par la American Cancer Society en 1928, et créé par George E. Durant de Brooklyn, New York.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Organisation institutionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société s'organise en douze divisions géographiques du domaine médical et recense des volontaires employés dans 900 bureaux américains[5],[2]. Ses bureaux principaux sont localisés au American Cancer Society Center (en) à Atlanta.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société s'organise en douze divisions géographiques du domaine médical et recense des volontaires employés dans 900 bureaux américains,. Ses bureaux principaux sont localisés au American Cancer Society Center (en) à Atlanta.
 </t>
         </is>
       </c>
